--- a/Knowledge/05_Bean Basic_Overview_20201118.xlsx
+++ b/Knowledge/05_Bean Basic_Overview_20201118.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpringBootPrj\Knowledge\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D2278-5A92-4C78-812A-BCD68D9ADA1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_History" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <definedName name="qqqq">#REF!</definedName>
     <definedName name="RFIC">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Update history</t>
   </si>
@@ -75,7 +81,7 @@
         <b/>
         <sz val="16"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ơ</t>
     </r>
@@ -111,7 +117,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -137,7 +143,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -151,10 +157,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">     
-     </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -167,7 +169,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -193,7 +195,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -248,7 +250,7 @@
         <b/>
         <sz val="16"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -296,36 +298,36 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợng tham gia</t>
+    </r>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ợng tham gia</t>
-    </r>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
       <t>Tên flow đối t</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -359,7 +361,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -397,7 +399,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -490,23 +492,171 @@
   </si>
   <si>
     <t>merge helloworld + service + db</t>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ean</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nstance</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/spring/spring_bean_definition.htm</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>Bean là đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợng tạo thành bộ khung cho application. Bean đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợc quản lý bởi Spring IoC container. Các bean đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợc tạo ra bằng cách cung cấp các meate data cấu hình cho container.
+Các meta data cần cung cấp cho container các thông tin của Bean:
+- Cách tạo Bean
+- Vòng đời của Bean
+- Các Bean dependencies
+Bean bao gồm các thuộc tính sau:
+1. Class
+2. Name
+3. Scope
+4. Constructor-arg
+5. Properties
+6. Autowiring mode
+7. Lazy-initialization mode
+8. Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thức khởi tạo
+9. Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thức hủy</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/A</t>
+    </r>
+    <phoneticPr fontId="24"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -573,7 +723,7 @@
     <font>
       <sz val="8"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
@@ -585,7 +735,7 @@
       <sz val="8"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -594,12 +744,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
       <name val="Meiryo UI"/>
       <charset val="128"/>
     </font>
@@ -624,174 +768,51 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Meiryo UI"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,7 +827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,194 +849,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1275,484 +1110,227 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="104">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="98">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="37" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,64 +1391,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="Normal 3" xfId="37"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="39" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="40" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="41" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="44" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="47" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2128,178 +1696,172 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="74"/>
-    <col min="2" max="2" width="5" style="74" customWidth="1"/>
-    <col min="3" max="3" width="13" style="74" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="74" customWidth="1"/>
-    <col min="5" max="8" width="11.3796296296296" style="74" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="74"/>
+    <col min="1" max="1" width="9" style="68"/>
+    <col min="2" max="2" width="5" style="68" customWidth="1"/>
+    <col min="3" max="3" width="13" style="68" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="68" customWidth="1"/>
+    <col min="5" max="8" width="11.375" style="68" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.8" spans="2:2">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.15"/>
-    <row r="3" spans="2:8">
-      <c r="B3" s="76" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="79">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="73">
         <f>ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="77" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="84">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="78">
         <f t="shared" ref="B5:B10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="84">
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="78">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="88"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="84">
+      <c r="C6" s="79"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="78">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="84">
+      <c r="C7" s="79"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="82"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="78">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="84">
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-    </row>
-    <row r="10" ht="15.15" spans="2:8">
-      <c r="B10" s="93">
+      <c r="C9" s="79"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="87">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:G10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"○, ,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.75" style="39" customWidth="1"/>
     <col min="2" max="2" width="25" style="40" customWidth="1"/>
-    <col min="3" max="3" width="22.1296296296296" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="41" customWidth="1"/>
     <col min="4" max="4" width="121.25" style="41" customWidth="1"/>
     <col min="5" max="5" width="9" style="42"/>
     <col min="6" max="8" width="9" style="41"/>
@@ -2307,7 +1869,7 @@
     <col min="10" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.8" spans="1:6">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
@@ -2317,429 +1879,432 @@
       <c r="E1" s="46"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" s="38" customFormat="1" ht="14.4" spans="1:6">
+    <row r="2" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A3" s="52">
+      <c r="D2" s="93"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4" s="38" customFormat="1" ht="83.25" customHeight="1" spans="1:6">
-      <c r="A4" s="52">
+      <c r="C3" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="95"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" s="38" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-    </row>
-    <row r="5" s="38" customFormat="1" ht="207.75" customHeight="1" spans="1:6">
-      <c r="A5" s="52">
-        <v>4</v>
-      </c>
-      <c r="B5" s="57" t="s">
+      <c r="C5" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" s="38" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="58"/>
-    </row>
-    <row r="6" s="38" customFormat="1" ht="200.25" customHeight="1" spans="1:6">
-      <c r="A6" s="52">
-        <v>5</v>
-      </c>
-      <c r="B6" s="59" t="s">
+      <c r="C6" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="96">
+        <v>6</v>
+      </c>
+      <c r="B7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="58"/>
-    </row>
-    <row r="7" s="38" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="60">
-        <v>6</v>
-      </c>
-      <c r="B7" s="61" t="s">
+      <c r="C7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="D7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="97"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="97"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="98"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="96">
+        <v>7</v>
+      </c>
+      <c r="B11" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-    </row>
-    <row r="9" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-    </row>
-    <row r="10" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-    </row>
-    <row r="11" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A11" s="60">
-        <v>7</v>
-      </c>
-      <c r="B11" s="61" t="s">
+      <c r="C11" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="97"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="97"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="97"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="98"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="96">
+        <v>8</v>
+      </c>
+      <c r="B16" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C16" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-    </row>
-    <row r="12" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-    </row>
-    <row r="13" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-    </row>
-    <row r="14" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-    </row>
-    <row r="15" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-    </row>
-    <row r="16" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A16" s="60">
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="97"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+    </row>
+    <row r="19" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="97"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+    </row>
+    <row r="20" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="98"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="96">
         <v>8</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B21" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C21" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-    </row>
-    <row r="17" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-    </row>
-    <row r="18" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-    </row>
-    <row r="19" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-    </row>
-    <row r="20" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-    </row>
-    <row r="21" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A21" s="60">
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="97"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+    </row>
+    <row r="23" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="97"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="97"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="98"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="96">
         <v>8</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B26" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C26" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-    </row>
-    <row r="22" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-    </row>
-    <row r="23" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-    </row>
-    <row r="24" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-    </row>
-    <row r="25" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-    </row>
-    <row r="26" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A26" s="60">
-        <v>8</v>
-      </c>
-      <c r="B26" s="61" t="s">
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="97"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="97"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="97"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="98"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="51">
+        <v>9</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-    </row>
-    <row r="27" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-    </row>
-    <row r="28" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-    </row>
-    <row r="29" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-    </row>
-    <row r="30" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-    </row>
-    <row r="31" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A31" s="52">
-        <v>9</v>
-      </c>
-      <c r="B31" s="57" t="s">
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="51">
+        <v>10</v>
+      </c>
+      <c r="B32" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-    </row>
-    <row r="32" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A32" s="52">
-        <v>10</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-    </row>
-    <row r="33" ht="14.4" spans="1:6">
-      <c r="A33" s="68"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-    </row>
-    <row r="34" ht="14.4" spans="1:6">
-      <c r="A34" s="68"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-    </row>
-    <row r="35" ht="14.4" spans="1:6">
-      <c r="A35" s="68"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
-    </row>
-    <row r="36" ht="14.4" spans="1:6">
-      <c r="A36" s="68"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-    </row>
-    <row r="37" ht="14.4" spans="1:6">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-    </row>
-    <row r="38" ht="14.4" spans="1:6">
-      <c r="A38" s="68"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-    </row>
-    <row r="39" ht="14.4" spans="1:6">
-      <c r="A39" s="68"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-    </row>
-    <row r="40" ht="14.4" spans="1:6">
-      <c r="A40" s="68"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-    </row>
-    <row r="41" ht="14.4" spans="1:6">
-      <c r="A41" s="68"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-    </row>
-    <row r="42" ht="14.4" spans="1:6">
-      <c r="A42" s="68"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-    </row>
-    <row r="43" ht="14.4" spans="1:6">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-    </row>
-    <row r="44" ht="14.4" spans="1:6">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="72"/>
+      <c r="C32" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="95"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="62"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="64"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="A7:A10"/>
@@ -2752,106 +2317,111 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
+  <phoneticPr fontId="24"/>
+  <hyperlinks>
+    <hyperlink ref="C32" r:id="rId1" xr:uid="{5C94F786-5AAC-4850-AE8F-02BE460F103A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.25" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.1296296296296" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="24" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.6296296296296" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="24" customWidth="1"/>
     <col min="6" max="6" width="31" style="24" customWidth="1"/>
-    <col min="7" max="7" width="73.1296296296296" style="6" customWidth="1"/>
-    <col min="8" max="8" width="42.6296296296296" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.12962962962963" style="6"/>
+    <col min="7" max="7" width="73.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.8" spans="2:3">
+    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" ht="15.15"/>
-    <row r="3" ht="15.15" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="45.6" spans="2:8">
+    </row>
+    <row r="4" spans="2:8" ht="48" x14ac:dyDescent="0.4">
       <c r="B4" s="30">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="30">
         <f t="shared" ref="B5:B9" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2863,7 +2433,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2875,7 +2445,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2887,7 +2457,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2899,12 +2469,12 @@
       <c r="G9" s="20"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="2:8">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
@@ -2913,53 +2483,50 @@
       <c r="H10" s="37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"General,Interface,Class,Enum,Exception,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E12" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"共通,Segment,Itinerary,Leg,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E53 F11:F53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E53 F11:F53" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"General,RQ,RS,Both,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:F146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:F146" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"RQ,RS,Both,-"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.37962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.12962962962963" style="4" customWidth="1"/>
-    <col min="6" max="6" width="55.3796296296296" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.8796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="55.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="49" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.8" spans="1:9">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2969,7 +2536,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2980,42 +2547,42 @@
       <c r="H2" s="12"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="15">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
@@ -3029,124 +2596,123 @@
       <c r="J4" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"General,Interface,Class,Enum,Exception,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="98" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="24"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Knowledge/05_Bean Basic_Overview_20201118.xlsx
+++ b/Knowledge/05_Bean Basic_Overview_20201118.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpringBootPrj\Knowledge\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D2278-5A92-4C78-812A-BCD68D9ADA1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="_History" sheetId="1" r:id="rId1"/>
@@ -18,18 +12,19 @@
     <sheet name="Details" sheetId="5" r:id="rId3"/>
     <sheet name="Ver.差分" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AAAA">#REF!</definedName>
     <definedName name="qqqq">#REF!</definedName>
     <definedName name="RFIC">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Update history</t>
   </si>
@@ -81,7 +76,7 @@
         <b/>
         <sz val="16"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ơ</t>
     </r>
@@ -117,7 +112,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -137,15 +132,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t>Phân loại đối t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
+      <t>B</t>
     </r>
     <r>
       <rPr>
@@ -153,7 +140,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t>ợng</t>
+      <t>ean</t>
     </r>
   </si>
   <si>
@@ -163,13 +150,13 @@
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t>Chức năng chung của đối t</t>
+      <t>Phân loại đối t</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -189,15 +176,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t>Giới hạn ứng dụng của đối t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
+      <t>I</t>
     </r>
     <r>
       <rPr>
@@ -205,59 +184,29 @@
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t>ợng</t>
-    </r>
-  </si>
-  <si>
-    <t>Interfaces tiêu biểu</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Chức năng chính</t>
-  </si>
-  <si>
-    <t>Classes tiêu biểu</t>
-  </si>
-  <si>
-    <t>Enums tiêu biểu</t>
-  </si>
-  <si>
-    <t>Exceptions tiêu biểu</t>
-  </si>
-  <si>
-    <t>Annotations tiêu biểu</t>
-  </si>
-  <si>
-    <t>Mối liên hệ với thành phần khác</t>
-  </si>
-  <si>
-    <t>URL tham chiếu tài liệu</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
+      <t>nstance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t>Các thành phần của đối t</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
+      <t>Chức năng chung của đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ư</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
+        <sz val="8"/>
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
@@ -265,40 +214,19 @@
     </r>
   </si>
   <si>
-    <t>Thành phần</t>
-  </si>
-  <si>
-    <t>Thành phần cụ thể</t>
-  </si>
-  <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Thông tin chi tiết</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t>đối t</t>
+      <t>Bean là đối t</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -308,37 +236,15 @@
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t>ợng tham gia</t>
-    </r>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
+      <t>ợng tạo thành bộ khung cho application. Bean đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>Tên flow đối t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ợng tham gia là gì?
-</t>
     </r>
     <r>
       <rPr>
@@ -346,238 +252,20 @@
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>ợc quản lý bởi Spring IoC container. Các bean đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;Mô tả flow mà đối t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ợng tham gia&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>xử lý nội bộ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;Mô tả flow xử lý nội bộ của đối t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ợng&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>insert above</t>
-  </si>
-  <si>
-    <t>VERSIONING UP HISTORY</t>
-  </si>
-  <si>
-    <t>Overview (EN)</t>
-  </si>
-  <si>
-    <t>Ver.</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>BEan cao cấp hơn class</t>
-  </si>
-  <si>
-    <t>Để hiểu dc Autowired thì cần hiểu được Bean</t>
-  </si>
-  <si>
-    <t>Mô hình MVC bao gồm Book, Repo</t>
-  </si>
-  <si>
-    <t>Book + Repo chính là Modul</t>
-  </si>
-  <si>
-    <t>hash code để làm gì?</t>
-  </si>
-  <si>
-    <t>tìm vào so sanh</t>
-  </si>
-  <si>
-    <t>hash: giống thì ts equal</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>@RestController</t>
-  </si>
-  <si>
-    <t>Ko có @Lombok?</t>
-  </si>
-  <si>
-    <t>download thư viện chứa annotion Lombok</t>
-  </si>
-  <si>
-    <t>override deleteById</t>
-  </si>
-  <si>
-    <t>lamda trong java core</t>
-  </si>
-  <si>
-    <t>laàm sao để dùng database</t>
-  </si>
-  <si>
-    <t>thư viện h2</t>
-  </si>
-  <si>
-    <t>spring boot database</t>
-  </si>
-  <si>
-    <t>download về</t>
-  </si>
-  <si>
-    <t>chạy ngon</t>
-  </si>
-  <si>
-    <t>merge vô code</t>
-  </si>
-  <si>
-    <t>=&gt; 1 features mới</t>
-  </si>
-  <si>
-    <t>Bài tập về nhà</t>
-  </si>
-  <si>
-    <t>merge helloworld + service + db</t>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ean</t>
-    </r>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nstance</t>
-    </r>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>https://www.tutorialspoint.com/spring/spring_bean_definition.htm</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>Bean là đối t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ợng tạo thành bộ khung cho application. Bean đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ợc quản lý bởi Spring IoC container. Các bean đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>ợc tạo ra bằng cách cung cấp các meate data cấu hình cho container.
@@ -599,7 +287,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ươ</t>
     </r>
@@ -607,7 +295,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Meiryo UI"/>
-        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>ng thức khởi tạo
@@ -617,7 +304,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ươ</t>
     </r>
@@ -625,38 +312,371 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Meiryo UI"/>
-        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>ng thức hủy</t>
     </r>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Giới hạn ứng dụng của đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>N</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="Meiryo UI"/>
-        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>/A</t>
     </r>
-    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>Interfaces tiêu biểu</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Chức năng chính</t>
+  </si>
+  <si>
+    <t>Classes tiêu biểu</t>
+  </si>
+  <si>
+    <t>Enums tiêu biểu</t>
+  </si>
+  <si>
+    <t>Exceptions tiêu biểu</t>
+  </si>
+  <si>
+    <t>Annotations tiêu biểu</t>
+  </si>
+  <si>
+    <t>Mối liên hệ với thành phần khác</t>
+  </si>
+  <si>
+    <t>URL tham chiếu tài liệu</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/spring/spring_bean_definition.htm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Các thành phần của đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợng</t>
+    </r>
+  </si>
+  <si>
+    <t>Thành phần</t>
+  </si>
+  <si>
+    <t>Thành phần cụ thể</t>
+  </si>
+  <si>
+    <t>Phân loại</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Thông tin chi tiết</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợng tham gia</t>
+    </r>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tên flow đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ợng tham gia là gì?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;Mô tả flow mà đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ợng tham gia&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>xử lý nội bộ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;Mô tả flow xử lý nội bộ của đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợng&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>insert above</t>
+  </si>
+  <si>
+    <t>VERSIONING UP HISTORY</t>
+  </si>
+  <si>
+    <t>Overview (EN)</t>
+  </si>
+  <si>
+    <t>Ver.</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>BEan cao cấp hơn class</t>
+  </si>
+  <si>
+    <t>Để hiểu dc Autowired thì cần hiểu được Bean</t>
+  </si>
+  <si>
+    <t>Mô hình MVC bao gồm Book, Repo</t>
+  </si>
+  <si>
+    <t>Book + Repo chính là Modul</t>
+  </si>
+  <si>
+    <t>hash code để làm gì?</t>
+  </si>
+  <si>
+    <t>tìm vào so sanh</t>
+  </si>
+  <si>
+    <t>hash: giống thì ts equal</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>@RestController</t>
+  </si>
+  <si>
+    <t>Ko có @Lombok?</t>
+  </si>
+  <si>
+    <t>download thư viện chứa annotion Lombok</t>
+  </si>
+  <si>
+    <t>override deleteById</t>
+  </si>
+  <si>
+    <t>lamda trong java core</t>
+  </si>
+  <si>
+    <t>laàm sao để dùng database</t>
+  </si>
+  <si>
+    <t>thư viện h2</t>
+  </si>
+  <si>
+    <t>spring boot database</t>
+  </si>
+  <si>
+    <t>download về</t>
+  </si>
+  <si>
+    <t>chạy ngon</t>
+  </si>
+  <si>
+    <t>merge vô code</t>
+  </si>
+  <si>
+    <t>=&gt; 1 features mới</t>
+  </si>
+  <si>
+    <t>Bài tập về nhà</t>
+  </si>
+  <si>
+    <t>merge helloworld + service + db</t>
+  </si>
+  <si>
+    <t>giống class nhưng advance hơn</t>
+  </si>
+  <si>
+    <t>bean có 2 cái cần nhớ:</t>
+  </si>
+  <si>
+    <t>bean type</t>
+  </si>
+  <si>
+    <t>bean lifecycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -723,7 +743,7 @@
     <font>
       <sz val="8"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -735,7 +755,7 @@
       <sz val="8"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -746,6 +766,19 @@
       <sz val="16"/>
       <name val="Meiryo UI"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -768,51 +801,166 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Meiryo UI"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,7 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,8 +997,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1110,227 +1444,487 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="37" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,54 +1985,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="Normal 3" xfId="37"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="39" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="40" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="41" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="44" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="47" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1696,172 +2300,178 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="68"/>
-    <col min="2" max="2" width="5" style="68" customWidth="1"/>
-    <col min="3" max="3" width="13" style="68" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="68" customWidth="1"/>
-    <col min="5" max="8" width="11.375" style="68" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="68"/>
+    <col min="1" max="1" width="9" style="75"/>
+    <col min="2" max="2" width="5" style="75" customWidth="1"/>
+    <col min="3" max="3" width="13" style="75" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="75" customWidth="1"/>
+    <col min="5" max="8" width="11.3796296296296" style="75" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+    <row r="1" ht="22.8" spans="2:2">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+    <row r="2" ht="15.15"/>
+    <row r="3" spans="2:8">
+      <c r="B3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="73">
+    <row r="4" spans="2:8">
+      <c r="B4" s="80">
         <f>ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="78">
+    <row r="5" spans="2:8">
+      <c r="B5" s="85">
         <f t="shared" ref="B5:B10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="78">
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="85">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="78">
+      <c r="C6" s="86"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="89"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="85">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="82"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="78">
+      <c r="C7" s="86"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="89"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="85">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="78">
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="85">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="87">
+      <c r="C9" s="86"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
+    </row>
+    <row r="10" ht="15.15" spans="2:8">
+      <c r="B10" s="94">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:G10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:G10">
       <formula1>"○, ,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="39" customWidth="1"/>
     <col min="2" max="2" width="25" style="40" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.1296296296296" style="41" customWidth="1"/>
     <col min="4" max="4" width="121.25" style="41" customWidth="1"/>
     <col min="5" max="5" width="9" style="42"/>
     <col min="6" max="8" width="9" style="41"/>
@@ -1869,7 +2479,7 @@
     <col min="10" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" ht="22.8" spans="1:6">
       <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
@@ -1879,432 +2489,437 @@
       <c r="E1" s="46"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" s="38" customFormat="1" ht="14.4" spans="1:6">
       <c r="A2" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
+      <c r="C3" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" s="38" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
+      <c r="A4" s="52">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:6" s="38" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="51">
+      <c r="B4" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" s="38" customFormat="1" ht="207.75" customHeight="1" spans="1:6">
+      <c r="A5" s="52">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="57"/>
-    </row>
-    <row r="6" spans="1:6" s="38" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="51">
+      <c r="B5" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" s="38" customFormat="1" ht="21" customHeight="1" spans="1:6">
+      <c r="A6" s="52">
         <v>5</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="57"/>
-    </row>
-    <row r="7" spans="1:6" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96">
+      <c r="B6" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" s="38" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A7" s="61">
         <v>6</v>
       </c>
-      <c r="B7" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="97"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-    </row>
-    <row r="9" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-    </row>
-    <row r="11" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96">
+      <c r="B7" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A11" s="61">
         <v>7</v>
       </c>
-      <c r="B11" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="97"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="97"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-    </row>
-    <row r="14" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-    </row>
-    <row r="16" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="96">
+      <c r="B11" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A16" s="61">
         <v>8</v>
       </c>
-      <c r="B16" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="97"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="97"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-    </row>
-    <row r="19" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="97"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-    </row>
-    <row r="21" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96">
+      <c r="B16" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A21" s="61">
         <v>8</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-    </row>
-    <row r="22" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="97"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-    </row>
-    <row r="23" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="97"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-    </row>
-    <row r="24" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="97"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-    </row>
-    <row r="25" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-    </row>
-    <row r="26" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96">
+      <c r="D21" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+    </row>
+    <row r="24" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+    </row>
+    <row r="25" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A26" s="61">
         <v>8</v>
       </c>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="97"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-    </row>
-    <row r="28" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="97"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="97"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-    </row>
-    <row r="30" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="98"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-    </row>
-    <row r="31" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="51">
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A31" s="52">
         <v>9</v>
       </c>
-      <c r="B31" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="51">
+      <c r="B31" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A32" s="52">
         <v>10</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="95"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="66"/>
+        <v>32</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" ht="14.4" spans="1:6">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" ht="14.4" spans="1:6">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" ht="14.4" spans="1:6">
+      <c r="A35" s="69"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+    </row>
+    <row r="36" ht="14.4" spans="1:6">
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" ht="14.4" spans="1:6">
+      <c r="A37" s="69"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" ht="14.4" spans="1:6">
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" ht="14.4" spans="1:6">
+      <c r="A39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" ht="14.4" spans="1:6">
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" ht="14.4" spans="1:6">
+      <c r="A41" s="69"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" ht="14.4" spans="1:6">
+      <c r="A42" s="69"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
+    </row>
+    <row r="43" ht="14.4" spans="1:6">
+      <c r="A43" s="69"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" ht="14.4" spans="1:6">
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="A7:A10"/>
@@ -2317,111 +2932,109 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <phoneticPr fontId="24"/>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1" xr:uid="{5C94F786-5AAC-4850-AE8F-02BE460F103A}"/>
+    <hyperlink ref="C32" r:id="rId1" display="https://www.tutorialspoint.com/spring/spring_bean_definition.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="2.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.25" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.1296296296296" style="24" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.6296296296296" style="24" customWidth="1"/>
     <col min="6" max="6" width="31" style="24" customWidth="1"/>
-    <col min="7" max="7" width="73.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="42.625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="6"/>
+    <col min="7" max="7" width="73.1296296296296" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.6296296296296" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.12962962962963" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" ht="22.8" spans="2:3">
       <c r="B1" s="25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" s="26"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" ht="15.15"/>
+    <row r="3" ht="15.15" spans="2:8">
       <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="48" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="45.6" spans="2:8">
       <c r="B4" s="30">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8">
       <c r="B5" s="30">
         <f t="shared" ref="B5:B9" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8">
       <c r="B6" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2433,7 +3046,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8">
       <c r="B7" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2445,7 +3058,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8">
       <c r="B8" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2457,7 +3070,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8">
       <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2469,12 +3082,12 @@
       <c r="G9" s="20"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" ht="15.75" customHeight="1" spans="2:8">
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
@@ -2483,50 +3096,53 @@
       <c r="H10" s="37"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10">
       <formula1>"General,Interface,Class,Enum,Exception,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E12" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:F146">
+      <formula1>"RQ,RS,Both,-"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E12">
       <formula1>"共通,Segment,Itinerary,Leg,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E53 F11:F53" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E53 F11:F53">
       <formula1>"General,RQ,RS,Both,-"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:F146" xr:uid="{00000000-0002-0000-0200-000003000000}">
-      <formula1>"RQ,RS,Both,-"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.37962962962963" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="55.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.12962962962963" style="4" customWidth="1"/>
+    <col min="6" max="6" width="55.3796296296296" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.8796296296296" style="1" customWidth="1"/>
     <col min="8" max="8" width="49" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" ht="22.8" spans="1:9">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2536,7 +3152,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" s="6"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2547,42 +3163,42 @@
       <c r="H2" s="12"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="6"/>
       <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="6"/>
       <c r="B4" s="15">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
@@ -2596,123 +3212,161 @@
       <c r="J4" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>"General,Interface,Class,Enum,Exception,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="92" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>